--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,193 +40,187 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -584,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9090909090909091</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -671,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -745,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7272727272727273</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.32</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -921,31 +915,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>51</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L8">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L8">
-        <v>44</v>
-      </c>
-      <c r="M8">
-        <v>44</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5357142857142857</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4444444444444444</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4377682403433477</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C12">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3793103448275862</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,31 +1165,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>218</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>64</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>18</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,651 +1197,531 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.325</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>350</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L14">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L15">
+        <v>92</v>
+      </c>
+      <c r="M15">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7659574468085106</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L17">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>26</v>
       </c>
-      <c r="D14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>54</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L18">
+        <v>106</v>
+      </c>
+      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
+      <c r="K19">
+        <v>0.71875</v>
+      </c>
+      <c r="L19">
+        <v>115</v>
+      </c>
+      <c r="M19">
+        <v>115</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="M14">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L22">
+        <v>44</v>
+      </c>
+      <c r="M22">
+        <v>44</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.66</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L24">
+        <v>31</v>
+      </c>
+      <c r="M24">
+        <v>31</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L25">
+        <v>59</v>
+      </c>
+      <c r="M25">
+        <v>59</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.6083550913838121</v>
+      </c>
+      <c r="L27">
+        <v>233</v>
+      </c>
+      <c r="M27">
+        <v>233</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.575</v>
+      </c>
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>23</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="L29">
+        <v>171</v>
+      </c>
+      <c r="M29">
+        <v>171</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.488135593220339</v>
+      </c>
+      <c r="L30">
+        <v>144</v>
+      </c>
+      <c r="M30">
+        <v>144</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L32">
         <v>36</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2090909090909091</v>
-      </c>
-      <c r="C16">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>87</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L16">
-        <v>44</v>
-      </c>
-      <c r="M16">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C17">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>69</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L17">
-        <v>22</v>
-      </c>
-      <c r="M17">
-        <v>22</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>171</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L18">
-        <v>53</v>
-      </c>
-      <c r="M18">
-        <v>53</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.007128969539857421</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <v>0.66</v>
-      </c>
-      <c r="F19">
-        <v>0.34</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1532</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7</v>
-      </c>
-      <c r="L20">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>21</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L21">
-        <v>27</v>
-      </c>
-      <c r="M21">
-        <v>27</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.65</v>
-      </c>
-      <c r="L22">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>13</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L23">
-        <v>11</v>
-      </c>
-      <c r="M23">
-        <v>11</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L24">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>21</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.625</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26">
-        <v>0.6244131455399061</v>
-      </c>
-      <c r="L26">
-        <v>133</v>
-      </c>
-      <c r="M26">
-        <v>133</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27">
-        <v>0.5736434108527132</v>
-      </c>
-      <c r="L27">
-        <v>74</v>
-      </c>
-      <c r="M27">
-        <v>74</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L28">
-        <v>20</v>
-      </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L30">
-        <v>80</v>
-      </c>
-      <c r="M30">
-        <v>80</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>51</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32">
-        <v>0.55</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5454545454545454</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1859,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.5263157894736842</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1885,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4594594594594595</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1911,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4166666666666667</v>
+        <v>0.40625</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1937,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3928571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1963,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3157894736842105</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L38">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1989,73 +1863,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.1354166666666667</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>83</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.1313131313131313</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>172</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.0861244019138756</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2067,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>191</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.0539906103286385</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2093,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>403</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.05365853658536585</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2119,137 +1993,189 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>388</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.04761904761904762</v>
+        <v>0.05108359133126935</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>300</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.04279279279279279</v>
+        <v>0.04971098265895954</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>425</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.02777777777777778</v>
+        <v>0.03514526710402999</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="N46">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="O46">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1085</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.01352221506761108</v>
+        <v>0.03136113805366958</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="N47">
-        <v>0.66</v>
+        <v>0.87</v>
       </c>
       <c r="O47">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1532</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.0119496855345912</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N48">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="O48">
-        <v>0.27</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1571</v>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>0.02163687676387582</v>
+      </c>
+      <c r="L49">
+        <v>69</v>
+      </c>
+      <c r="M49">
+        <v>81</v>
+      </c>
+      <c r="N49">
+        <v>0.85</v>
+      </c>
+      <c r="O49">
+        <v>0.15</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50">
+        <v>0.01813471502590673</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>24</v>
+      </c>
+      <c r="N50">
+        <v>0.88</v>
+      </c>
+      <c r="O50">
+        <v>0.12</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,7 +43,7 @@
     <t>crude</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -52,18 +52,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>panic</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,94 +67,106 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>nice</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
+    <t>gt</t>
   </si>
   <si>
     <t>hope</t>
@@ -169,36 +175,39 @@
     <t>increase</t>
   </si>
   <si>
-    <t>care</t>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>local</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -211,13 +220,13 @@
     <t>19</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="L3">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
       <c r="M3">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -697,37 +706,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,16 +777,16 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6301369863013698</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C6">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D6">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3454545454545455</v>
+        <v>0.3158914728682171</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8636363636363636</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -897,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.32</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>52</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>51</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3003875968992248</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,49 +1006,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2727272727272727</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>120</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>0.8359375</v>
+      </c>
+      <c r="L10">
+        <v>107</v>
+      </c>
+      <c r="M10">
+        <v>107</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1056,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2169312169312169</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7843137254901961</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,163 +1106,115 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1946308724832215</v>
+        <v>0.006035578144853875</v>
       </c>
       <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>72</v>
+      </c>
+      <c r="E12">
+        <v>0.74</v>
+      </c>
+      <c r="F12">
+        <v>0.26</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3129</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L12">
+        <v>38</v>
+      </c>
+      <c r="M12">
+        <v>38</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="K13">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L13">
         <v>29</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>120</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K12">
-        <v>0.78125</v>
-      </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1349206349206349</v>
-      </c>
-      <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>218</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="K14">
+        <v>0.7816901408450704</v>
+      </c>
+      <c r="L14">
+        <v>111</v>
+      </c>
+      <c r="M14">
+        <v>111</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L13">
-        <v>64</v>
-      </c>
-      <c r="M13">
-        <v>64</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.06166219839142091</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>350</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7666666666666667</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7547169811320755</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7464788732394366</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.71875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.69375</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1447,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.6458333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6276595744680851</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6222222222222222</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6083550913838121</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.575</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5029411764705882</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1629,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>169</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.488135593220339</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4615384615384616</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4606741573033708</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4225941422594142</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L35">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.40625</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.3714285714285714</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.1288343558282209</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,73 +1824,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>142</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.0966183574879227</v>
+        <v>0.390625</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>374</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.09592326139088729</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M40">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>377</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.06823266219239374</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1941,241 +1902,397 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>833</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.06422018348623854</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>306</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.05660377358490566</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>850</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.05108359133126935</v>
+        <v>0.0856269113149847</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N44">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>613</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.04971098265895954</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L45">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.03514526710402999</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L46">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2059</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.03136113805366958</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="L47">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="N47">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>2996</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.02277432712215321</v>
+        <v>0.05993340732519423</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="M48">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N48">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>944</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.02163687676387582</v>
+        <v>0.05255023183925812</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="N49">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O49">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3120</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50">
+        <v>0.04849884526558892</v>
+      </c>
+      <c r="L50">
+        <v>42</v>
+      </c>
+      <c r="M50">
+        <v>43</v>
+      </c>
+      <c r="N50">
+        <v>0.98</v>
+      </c>
+      <c r="O50">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0.04260299625468165</v>
+      </c>
+      <c r="L51">
+        <v>91</v>
+      </c>
+      <c r="M51">
+        <v>98</v>
+      </c>
+      <c r="N51">
+        <v>0.93</v>
+      </c>
+      <c r="O51">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K50">
-        <v>0.01813471502590673</v>
-      </c>
-      <c r="L50">
-        <v>21</v>
-      </c>
-      <c r="M50">
+      <c r="K52">
+        <v>0.03917525773195876</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>0.95</v>
+      </c>
+      <c r="O52">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K53">
+        <v>0.03263327948303716</v>
+      </c>
+      <c r="L53">
+        <v>101</v>
+      </c>
+      <c r="M53">
+        <v>113</v>
+      </c>
+      <c r="N53">
+        <v>0.89</v>
+      </c>
+      <c r="O53">
+        <v>0.11</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <v>0.02901554404145078</v>
+      </c>
+      <c r="L54">
+        <v>28</v>
+      </c>
+      <c r="M54">
+        <v>31</v>
+      </c>
+      <c r="N54">
+        <v>0.9</v>
+      </c>
+      <c r="O54">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="L55">
         <v>24</v>
       </c>
-      <c r="N50">
-        <v>0.88</v>
-      </c>
-      <c r="O50">
-        <v>0.12</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1137</v>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>0.96</v>
+      </c>
+      <c r="O55">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56">
+        <v>0.01665619107479573</v>
+      </c>
+      <c r="L56">
+        <v>53</v>
+      </c>
+      <c r="M56">
+        <v>72</v>
+      </c>
+      <c r="N56">
+        <v>0.74</v>
+      </c>
+      <c r="O56">
+        <v>0.26</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3129</v>
       </c>
     </row>
   </sheetData>
